--- a/Lab4.2.xlsx
+++ b/Lab4.2.xlsx
@@ -4,11 +4,47 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Отчет о результатах 1" sheetId="2" r:id="rId1"/>
+    <sheet name="Отчет об устойчивости 1" sheetId="3" r:id="rId2"/>
+    <sheet name="Отчет о пределах 1" sheetId="4" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">Лист1!$F$18:$F$22</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">Лист1!$H$23</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">Лист1!$J$23</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">Лист1!$B$16</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -19,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="64">
   <si>
     <t>Vi</t>
   </si>
@@ -37,13 +73,187 @@
   </si>
   <si>
     <t>i</t>
+  </si>
+  <si>
+    <t>Ki * Vi / qi0</t>
+  </si>
+  <si>
+    <t>qi0</t>
+  </si>
+  <si>
+    <t>Si * qi0</t>
+  </si>
+  <si>
+    <t>Fi * qi0</t>
+  </si>
+  <si>
+    <t>Ki * Vi / qi0 + 0.5 * Si * qi0</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.0 Отчет о результатах</t>
+  </si>
+  <si>
+    <t>Лист: [Lab4.2.xlsx]Лист1</t>
+  </si>
+  <si>
+    <t>Отчет создан: 20.10.2021 13:32:07</t>
+  </si>
+  <si>
+    <t>Результат: Решение найдено. Все ограничения и условия оптимальности выполнены.</t>
+  </si>
+  <si>
+    <t>Модуль поиска решения</t>
+  </si>
+  <si>
+    <t>Модуль: Поиск решения нелинейных задач методом ОПГ</t>
+  </si>
+  <si>
+    <t>Время решения: 0,266 секунд.</t>
+  </si>
+  <si>
+    <t>Число итераций: 8 Число подзадач: 0</t>
+  </si>
+  <si>
+    <t>Параметры поиска решения</t>
+  </si>
+  <si>
+    <t>Максимальное время Без пределов,  Число итераций Без пределов, Precision 0,000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Сходимость 0,0001, Размер совокупности 100, Случайное начальное значение 0, Центральные производные</t>
+  </si>
+  <si>
+    <t>Максимальное число подзадач Без пределов, Максимальное число целочисленных решений Без пределов, Целочисленное отклонение 1%, Считать неотрицательными</t>
+  </si>
+  <si>
+    <t>Ячейка целевой функции (Минимум)</t>
+  </si>
+  <si>
+    <t>Ячейка</t>
+  </si>
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Исходное значение</t>
+  </si>
+  <si>
+    <t>Окончательное значение</t>
+  </si>
+  <si>
+    <t>Ячейки переменных</t>
+  </si>
+  <si>
+    <t>Целочисленное</t>
+  </si>
+  <si>
+    <t>Ограничения</t>
+  </si>
+  <si>
+    <t>Значение ячейки</t>
+  </si>
+  <si>
+    <t>Формула</t>
+  </si>
+  <si>
+    <t>Состояние</t>
+  </si>
+  <si>
+    <t>Допуск</t>
+  </si>
+  <si>
+    <t>$J$23</t>
+  </si>
+  <si>
+    <t>$F$18</t>
+  </si>
+  <si>
+    <t>Продолжить</t>
+  </si>
+  <si>
+    <t>$F$19</t>
+  </si>
+  <si>
+    <t>$F$20</t>
+  </si>
+  <si>
+    <t>$F$21</t>
+  </si>
+  <si>
+    <t>$F$22</t>
+  </si>
+  <si>
+    <t>$H$23</t>
+  </si>
+  <si>
+    <t>$H$23&lt;=$B$16</t>
+  </si>
+  <si>
+    <t>Привязка</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.0 Отчет об устойчивости</t>
+  </si>
+  <si>
+    <t>Окончательное</t>
+  </si>
+  <si>
+    <t>Значение</t>
+  </si>
+  <si>
+    <t>Приведенн.</t>
+  </si>
+  <si>
+    <t>Градиент</t>
+  </si>
+  <si>
+    <t>Лагранжа</t>
+  </si>
+  <si>
+    <t>Множитель</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.0 Отчет о пределах</t>
+  </si>
+  <si>
+    <t>Целевая функция</t>
+  </si>
+  <si>
+    <t>Переменная</t>
+  </si>
+  <si>
+    <t>Нижний</t>
+  </si>
+  <si>
+    <t>Предел</t>
+  </si>
+  <si>
+    <t>Результат</t>
+  </si>
+  <si>
+    <t>Верхний</t>
+  </si>
+  <si>
+    <t>Результат системы</t>
+  </si>
+  <si>
+    <t>Необходимые складские площади</t>
+  </si>
+  <si>
+    <t>Издержки работы в д.е./год</t>
+  </si>
+  <si>
+    <t>Управление поставками без ограничений</t>
+  </si>
+  <si>
+    <t>Управление поставками с ограничениями на складские площади</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,6 +270,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -69,7 +287,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -92,17 +310,136 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="23"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -165,11 +502,1685 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
           <a:endParaRPr lang="ru-RU" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="800797" cy="500137"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4518660" y="346710"/>
+              <a:ext cx="800797" cy="500137"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSubSup>
+                      <m:sSubSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑞</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>0</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSubSup>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:rad>
+                      <m:radPr>
+                        <m:degHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:radPr>
+                      <m:deg/>
+                      <m:e>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝐾</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑖</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑣</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑖</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:num>
+                          <m:den>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑠</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑖</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:den>
+                        </m:f>
+                      </m:e>
+                    </m:rad>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4518660" y="346710"/>
+              <a:ext cx="800797" cy="500137"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑞</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>0=√((2𝐾_𝑖 𝑣_𝑖)/𝑠_𝑖 )</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3261360" y="1280160"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3261360" y="1280160"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="10207281" cy="380361"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="685800" y="5878830"/>
+              <a:ext cx="10207281" cy="380361"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐿</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>10∗4000</m:t>
+                            </m:r>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>100</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>+ </m:t>
+                        </m:r>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>∗8∗100</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>7∗2000</m:t>
+                            </m:r>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>20</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>+ </m:t>
+                        </m:r>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>∗70∗20</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>15∗8000</m:t>
+                            </m:r>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>200</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>+ </m:t>
+                        </m:r>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>∗6∗200</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>110∗600</m:t>
+                            </m:r>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>128,4523</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>+ </m:t>
+                        </m:r>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>∗8∗128,4523</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>6∗1500</m:t>
+                            </m:r>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>30</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>+ </m:t>
+                        </m:r>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>∗20∗30</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=5027,618606</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="685800" y="5878830"/>
+              <a:ext cx="10207281" cy="380361"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐿=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>((10∗4000)/100+ 1/2∗8∗100)+((</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>7</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>000)/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>0+ 1/2∗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>70</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>20</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)+((1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>5</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>8</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>000)/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>00+ 1/2∗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>6</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>00)+((1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>0∗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>6</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>00)/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>128,4523</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>+ 1/2∗8∗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>128,4523</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)+((</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>6</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>15</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>00)/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>0+ 1/2∗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>20</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>0)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=5027,618606</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
@@ -438,15 +2449,698 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.21875" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="8">
+        <v>249056</v>
+      </c>
+      <c r="E16" s="8">
+        <v>16198.093036593329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="9">
+        <v>1</v>
+      </c>
+      <c r="E21" s="9">
+        <v>15.912202506225846</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="9">
+        <v>1</v>
+      </c>
+      <c r="E22" s="9">
+        <v>3.1824276379550698</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="9">
+        <v>1</v>
+      </c>
+      <c r="E23" s="9">
+        <v>31.824929024554446</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="9">
+        <v>1</v>
+      </c>
+      <c r="E24" s="9">
+        <v>20.439226142507227</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1</v>
+      </c>
+      <c r="E25" s="8">
+        <v>4.7734531002976865</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="8">
+        <v>799.99999999999977</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.21875" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="7">
+        <v>15.912202506225846</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3.1824276379550698</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="7">
+        <v>31.824929024554446</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="7">
+        <v>20.439226142507227</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="5">
+        <v>4.7734531002976865</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="5">
+        <v>799.99999999999977</v>
+      </c>
+      <c r="E18" s="5">
+        <v>-19.247535923549105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.21875" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.33203125" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="8">
+        <v>16198.093036593329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="F11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="9">
+        <v>15.912202506225846</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I13" s="9">
+        <v>15.91220250622586</v>
+      </c>
+      <c r="J13" s="9">
+        <v>16198.093036593327</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="9">
+        <v>3.1824276379550698</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I14" s="9">
+        <v>3.1824276379550711</v>
+      </c>
+      <c r="J14" s="9">
+        <v>16198.093036593327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="9">
+        <v>31.824929024554446</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I15" s="9">
+        <v>31.824929024554471</v>
+      </c>
+      <c r="J15" s="9">
+        <v>16198.093036593325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="9">
+        <v>20.439226142507227</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I16" s="9">
+        <v>20.439226142507248</v>
+      </c>
+      <c r="J16" s="9">
+        <v>16198.093036593325</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="8">
+        <v>4.7734531002976865</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" s="8">
+        <v>4.7734531002976954</v>
+      </c>
+      <c r="J17" s="8">
+        <v>16198.093036593327</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -469,95 +3163,668 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="13">
         <v>800</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>4000</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>2000</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>8000</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>600</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>1500</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="13"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>10</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>7</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>15</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>110</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>8</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>70</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>6</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>8</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>3</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>2</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>2</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>5</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>30</v>
       </c>
     </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="14">
+        <v>800</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4000</v>
+      </c>
+      <c r="C9" s="2">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2">
+        <f>SQRT(2*C9*B9/D9)</f>
+        <v>100</v>
+      </c>
+      <c r="G9" s="2">
+        <f>C9*B9/F9</f>
+        <v>400</v>
+      </c>
+      <c r="H9" s="2">
+        <f>D9*F9</f>
+        <v>800</v>
+      </c>
+      <c r="I9" s="2">
+        <f>E9*F9</f>
+        <v>300</v>
+      </c>
+      <c r="J9" s="2">
+        <f>G9+0.5*H9</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C10" s="2">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2">
+        <v>70</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" ref="F10:F13" si="0">SQRT(2*C10*B10/D10)</f>
+        <v>20</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" ref="G10:G13" si="1">C10*B10/F10</f>
+        <v>700</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" ref="H10:H13" si="2">D10*F10</f>
+        <v>1400</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" ref="I10:I13" si="3">E10*F10</f>
+        <v>40</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" ref="J10:J13" si="4">G10+0.5*H10</f>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2">
+        <v>8000</v>
+      </c>
+      <c r="C11" s="2">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="2"/>
+        <v>1200</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="4"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2">
+        <v>600</v>
+      </c>
+      <c r="C12" s="2">
+        <v>110</v>
+      </c>
+      <c r="D12" s="2">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5</v>
+      </c>
+      <c r="F12" s="2">
+        <f>SQRT(2*C12*B12/D12)</f>
+        <v>128.4523257866513</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="1"/>
+        <v>513.80930314660509</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="2"/>
+        <v>1027.6186062932104</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="3"/>
+        <v>642.26162893325647</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="4"/>
+        <v>1027.6186062932102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C13" s="2">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2">
+        <v>20</v>
+      </c>
+      <c r="E13" s="2">
+        <v>30</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="4"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2">
+        <f>SUM(G9:G13)</f>
+        <v>2513.8093031466051</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" ref="H14:I14" si="5">SUM(H9:H13)</f>
+        <v>5027.6186062932102</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="5"/>
+        <v>2282.2616289332564</v>
+      </c>
+      <c r="J14" s="2">
+        <f>SUM(J9:J13)</f>
+        <v>5027.6186062932102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="14">
+        <v>800</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4000</v>
+      </c>
+      <c r="C18" s="2">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2">
+        <v>15.912202506225846</v>
+      </c>
+      <c r="G18" s="2">
+        <f>C18*B18/F18</f>
+        <v>2513.7940510969179</v>
+      </c>
+      <c r="H18" s="2">
+        <f>D18*F18</f>
+        <v>127.29762004980677</v>
+      </c>
+      <c r="I18" s="2">
+        <f>E18*F18</f>
+        <v>47.736607518677538</v>
+      </c>
+      <c r="J18" s="2">
+        <f>G18+0.5*H18</f>
+        <v>2577.4428611218214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C19" s="2">
+        <v>7</v>
+      </c>
+      <c r="D19" s="2">
+        <v>70</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
+      <c r="F19" s="2">
+        <v>3.1824276379550698</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" ref="G19:G22" si="6">C19*B19/F19</f>
+        <v>4399.157370627905</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" ref="H19:H22" si="7">D19*F19</f>
+        <v>222.76993465685487</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" ref="I19:I22" si="8">E19*F19</f>
+        <v>6.3648552759101396</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" ref="J19:J22" si="9">G19+0.5*H19</f>
+        <v>4510.5423379563326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>3</v>
+      </c>
+      <c r="B20" s="2">
+        <v>8000</v>
+      </c>
+      <c r="C20" s="2">
+        <v>15</v>
+      </c>
+      <c r="D20" s="2">
+        <v>6</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2">
+        <v>31.824929024554446</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="6"/>
+        <v>3770.6289904814648</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="7"/>
+        <v>190.94957414732667</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="8"/>
+        <v>63.649858049108893</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="9"/>
+        <v>3866.1037775551281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2">
+        <v>600</v>
+      </c>
+      <c r="C21" s="2">
+        <v>110</v>
+      </c>
+      <c r="D21" s="2">
+        <v>8</v>
+      </c>
+      <c r="E21" s="2">
+        <v>5</v>
+      </c>
+      <c r="F21" s="2">
+        <v>20.439226142507227</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="6"/>
+        <v>3229.0850710213804</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="7"/>
+        <v>163.51380914005782</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="8"/>
+        <v>102.19613071253613</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="9"/>
+        <v>3310.8419755914092</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>5</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C22" s="2">
+        <v>6</v>
+      </c>
+      <c r="D22" s="2">
+        <v>20</v>
+      </c>
+      <c r="E22" s="2">
+        <v>30</v>
+      </c>
+      <c r="F22" s="2">
+        <v>4.7734531002976865</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="6"/>
+        <v>1885.4275533656617</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="7"/>
+        <v>95.469062005953731</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="8"/>
+        <v>143.2035930089306</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="9"/>
+        <v>1933.1620843686385</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2">
+        <f>SUM(G18:G22)</f>
+        <v>15798.093036593329</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" ref="H23:I23" si="10">SUM(H18:H22)</f>
+        <v>799.99999999999977</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="10"/>
+        <v>363.15104456516326</v>
+      </c>
+      <c r="J23" s="2">
+        <f>SUM(J18:J22)</f>
+        <v>16198.093036593329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="J25" s="17"/>
+    </row>
+    <row r="26" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="13">
+        <f>I14</f>
+        <v>2282.2616289332564</v>
+      </c>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13">
+        <f>J14</f>
+        <v>5027.6186062932102</v>
+      </c>
+      <c r="J26" s="13"/>
+    </row>
+    <row r="27" spans="1:10" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="13">
+        <f>I23</f>
+        <v>363.15104456516326</v>
+      </c>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13">
+        <f>J23</f>
+        <v>16198.093036593329</v>
+      </c>
+      <c r="J27" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="12">
     <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:J27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Lab4.2.xlsx
+++ b/Lab4.2.xlsx
@@ -4,46 +4,50 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет о результатах 1" sheetId="2" r:id="rId1"/>
     <sheet name="Отчет об устойчивости 1" sheetId="3" r:id="rId2"/>
     <sheet name="Отчет о пределах 1" sheetId="4" r:id="rId3"/>
-    <sheet name="Лист1" sheetId="1" r:id="rId4"/>
+    <sheet name="Отчет о результатах 2" sheetId="5" r:id="rId4"/>
+    <sheet name="Отчет об устойчивости 2" sheetId="6" r:id="rId5"/>
+    <sheet name="Отчет о пределах 2" sheetId="7" r:id="rId6"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="3" hidden="1">Лист1!$F$18:$F$22</definedName>
-    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="3" hidden="1">Лист1!$H$23</definedName>
-    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="3" hidden="1">Лист1!$J$23</definedName>
-    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rel1" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="3" hidden="1">Лист1!$B$16</definedName>
-    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_adj" localSheetId="6" hidden="1">Лист1!$F$18:$F$22</definedName>
+    <definedName name="solver_cvg" localSheetId="6" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="6" hidden="1">Лист1!$I$23</definedName>
+    <definedName name="solver_mip" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="6" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="6" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="6" hidden="1">Лист1!$J$23</definedName>
+    <definedName name="solver_pre" localSheetId="6" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="6" hidden="1">Лист1!$B$16</definedName>
+    <definedName name="solver_rlx" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="6" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="6" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="6" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -55,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="70">
   <si>
     <t>Vi</t>
   </si>
@@ -247,13 +251,31 @@
   </si>
   <si>
     <t>Управление поставками с ограничениями на складские площади</t>
+  </si>
+  <si>
+    <t>qi</t>
+  </si>
+  <si>
+    <t>Отчет создан: 02.11.2021 14:23:27</t>
+  </si>
+  <si>
+    <t>Время решения: 0,047 секунд.</t>
+  </si>
+  <si>
+    <t>Число итераций: 6 Число подзадач: 0</t>
+  </si>
+  <si>
+    <t>$I$23</t>
+  </si>
+  <si>
+    <t>$I$23&lt;=$B$16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +290,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -400,7 +430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -419,8 +449,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -437,8 +467,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3126,10 +3165,687 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.21875" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="8">
+        <v>249056</v>
+      </c>
+      <c r="E16" s="8">
+        <v>7002.1895805965823</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="9">
+        <v>1</v>
+      </c>
+      <c r="E21" s="9">
+        <v>44.355024396129338</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="9">
+        <v>1</v>
+      </c>
+      <c r="E22" s="9">
+        <v>17.467403411019848</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="9">
+        <v>1</v>
+      </c>
+      <c r="E23" s="9">
+        <v>92.953379336906636</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="9">
+        <v>1</v>
+      </c>
+      <c r="E24" s="9">
+        <v>45.978682614042413</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1</v>
+      </c>
+      <c r="E25" s="8">
+        <v>7.2066649415182304</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="8">
+        <v>800</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.21875" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="7">
+        <v>44.355024396129338</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="7">
+        <v>17.467403411019848</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="7">
+        <v>92.953379336906636</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="7">
+        <v>45.978682614042413</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="5">
+        <v>7.2066649415182304</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="5">
+        <v>800</v>
+      </c>
+      <c r="E18" s="5">
+        <v>-5.4430043538411459</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.21875" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.33203125" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="20"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="8">
+        <v>7002.1895805965823</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="20"/>
+      <c r="C11" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="F11" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="9">
+        <v>44.355024396129338</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I13" s="9">
+        <v>44.355024396129338</v>
+      </c>
+      <c r="J13" s="9">
+        <v>7002.1895805965823</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="9">
+        <v>17.467403411019848</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I14" s="9">
+        <v>17.467403411019866</v>
+      </c>
+      <c r="J14" s="9">
+        <v>7002.1895805965823</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="9">
+        <v>92.953379336906636</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I15" s="9">
+        <v>92.953379336906636</v>
+      </c>
+      <c r="J15" s="9">
+        <v>7002.1895805965823</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="9">
+        <v>45.978682614042413</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I16" s="9">
+        <v>45.97868261404242</v>
+      </c>
+      <c r="J16" s="9">
+        <v>7002.1895805965823</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="8">
+        <v>7.2066649415182304</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" s="8">
+        <v>7.2066649415182313</v>
+      </c>
+      <c r="J17" s="8">
+        <v>7002.1895805965823</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3250,7 +3966,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="14">
@@ -3265,7 +3981,7 @@
       <c r="I7" s="16"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -3506,7 +4222,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="14">
@@ -3521,7 +4237,7 @@
       <c r="I16" s="16"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -3537,7 +4253,7 @@
         <v>3</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>6</v>
@@ -3569,23 +4285,23 @@
         <v>3</v>
       </c>
       <c r="F18" s="2">
-        <v>15.912202506225846</v>
+        <v>44.355024396129338</v>
       </c>
       <c r="G18" s="2">
         <f>C18*B18/F18</f>
-        <v>2513.7940510969179</v>
+        <v>901.81440647546162</v>
       </c>
       <c r="H18" s="2">
         <f>D18*F18</f>
-        <v>127.29762004980677</v>
+        <v>354.8401951690347</v>
       </c>
       <c r="I18" s="2">
         <f>E18*F18</f>
-        <v>47.736607518677538</v>
+        <v>133.065073188388</v>
       </c>
       <c r="J18" s="2">
         <f>G18+0.5*H18</f>
-        <v>2577.4428611218214</v>
+        <v>1079.2345040599789</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -3605,23 +4321,23 @@
         <v>2</v>
       </c>
       <c r="F19" s="2">
-        <v>3.1824276379550698</v>
+        <v>17.467403411019848</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" ref="G19:G22" si="6">C19*B19/F19</f>
-        <v>4399.157370627905</v>
+        <v>801.49291057007758</v>
       </c>
       <c r="H19" s="2">
         <f t="shared" ref="H19:H22" si="7">D19*F19</f>
-        <v>222.76993465685487</v>
+        <v>1222.7182387713895</v>
       </c>
       <c r="I19" s="2">
         <f t="shared" ref="I19:I22" si="8">E19*F19</f>
-        <v>6.3648552759101396</v>
+        <v>34.934806822039697</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" ref="J19:J22" si="9">G19+0.5*H19</f>
-        <v>4510.5423379563326</v>
+        <v>1412.8520299557722</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -3641,23 +4357,23 @@
         <v>2</v>
       </c>
       <c r="F20" s="2">
-        <v>31.824929024554446</v>
+        <v>92.953379336906636</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="6"/>
-        <v>3770.6289904814648</v>
+        <v>1290.969740487473</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" si="7"/>
-        <v>190.94957414732667</v>
+        <v>557.72027602143976</v>
       </c>
       <c r="I20" s="2">
         <f t="shared" si="8"/>
-        <v>63.649858049108893</v>
+        <v>185.90675867381327</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="9"/>
-        <v>3866.1037775551281</v>
+        <v>1569.829878498193</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -3677,23 +4393,23 @@
         <v>5</v>
       </c>
       <c r="F21" s="2">
-        <v>20.439226142507227</v>
+        <v>45.978682614042413</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="6"/>
-        <v>3229.0850710213804</v>
+        <v>1435.4478259854025</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="7"/>
-        <v>163.51380914005782</v>
+        <v>367.8294609123393</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" si="8"/>
-        <v>102.19613071253613</v>
+        <v>229.89341307021206</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="9"/>
-        <v>3310.8419755914092</v>
+        <v>1619.362556441572</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -3713,23 +4429,23 @@
         <v>30</v>
       </c>
       <c r="F22" s="2">
-        <v>4.7734531002976865</v>
+        <v>7.2066649415182304</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" si="6"/>
-        <v>1885.4275533656617</v>
+        <v>1248.8439622258845</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" si="7"/>
-        <v>95.469062005953731</v>
+        <v>144.13329883036459</v>
       </c>
       <c r="I22" s="2">
         <f t="shared" si="8"/>
-        <v>143.2035930089306</v>
+        <v>216.19994824554692</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="9"/>
-        <v>1933.1620843686385</v>
+        <v>1320.9106116410669</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -3741,19 +4457,19 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2">
         <f>SUM(G18:G22)</f>
-        <v>15798.093036593329</v>
+        <v>5678.5688457442993</v>
       </c>
       <c r="H23" s="2">
         <f t="shared" ref="H23:I23" si="10">SUM(H18:H22)</f>
-        <v>799.99999999999977</v>
+        <v>2647.2414697045679</v>
       </c>
       <c r="I23" s="2">
         <f t="shared" si="10"/>
-        <v>363.15104456516326</v>
+        <v>800</v>
       </c>
       <c r="J23" s="2">
         <f>SUM(J18:J22)</f>
-        <v>16198.093036593329</v>
+        <v>7002.1895805965823</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -3774,12 +4490,12 @@
       <c r="J25" s="17"/>
     </row>
     <row r="26" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
       <c r="F26" s="13">
         <f>I14</f>
         <v>2282.2616289332564</v>
@@ -3793,38 +4509,38 @@
       <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
       <c r="F27" s="13">
         <f>I23</f>
-        <v>363.15104456516326</v>
+        <v>800</v>
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
       <c r="I27" s="13">
         <f>J23</f>
-        <v>16198.093036593329</v>
+        <v>7002.1895805965823</v>
       </c>
       <c r="J27" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:J27"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="F25:H25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:J27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Lab4.2.xlsx
+++ b/Lab4.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет о результатах 1" sheetId="2" r:id="rId1"/>
@@ -452,6 +452,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -465,18 +477,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2492,86 +2492,86 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" customWidth="1"/>
-    <col min="2" max="2" width="7.21875" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
         <v>24</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>35</v>
       </c>
@@ -2599,12 +2599,12 @@
         <v>16198.093036593329</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
         <v>24</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>36</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
         <v>38</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>39</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
         <v>40</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="5" t="s">
         <v>41</v>
       </c>
@@ -2706,12 +2706,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
         <v>24</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="5" t="s">
         <v>42</v>
       </c>
@@ -2762,36 +2762,36 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" customWidth="1"/>
-    <col min="2" max="2" width="7.21875" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10" t="s">
@@ -2801,7 +2801,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>36</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>38</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>39</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>40</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
         <v>41</v>
       </c>
@@ -2885,12 +2885,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10" t="s">
@@ -2900,7 +2900,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
         <v>24</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
         <v>42</v>
       </c>
@@ -2941,44 +2941,44 @@
       <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" customWidth="1"/>
-    <col min="2" max="2" width="7.21875" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.33203125" customWidth="1"/>
-    <col min="6" max="6" width="8.109375" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.33203125" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.28515625" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="10"/>
       <c r="C6" s="10" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>24</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>35</v>
       </c>
@@ -3000,8 +3000,8 @@
         <v>16198.093036593329</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="10"/>
       <c r="C11" s="10" t="s">
         <v>54</v>
@@ -3020,7 +3020,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="11" t="s">
         <v>24</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>36</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>16198.093036593327</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
         <v>38</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>16198.093036593327</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>39</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>16198.093036593325</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>40</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>16198.093036593325</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
         <v>41</v>
       </c>
@@ -3169,100 +3169,100 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" customWidth="1"/>
-    <col min="2" max="2" width="7.21875" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="19" t="s">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>35</v>
       </c>
@@ -3276,29 +3276,29 @@
         <v>7002.1895805965823</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="19" t="s">
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>36</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
         <v>38</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>39</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
         <v>40</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="5" t="s">
         <v>41</v>
       </c>
@@ -3383,32 +3383,32 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="19" t="s">
+    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="19" t="s">
+      <c r="F29" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G29" s="19" t="s">
+      <c r="G29" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="5" t="s">
         <v>68</v>
       </c>
@@ -3439,60 +3439,60 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" customWidth="1"/>
-    <col min="2" max="2" width="7.21875" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="21" t="s">
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>36</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>38</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>39</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>40</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
         <v>41</v>
       </c>
@@ -3562,36 +3562,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="21" t="s">
+    <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
         <v>68</v>
       </c>
@@ -3618,55 +3618,55 @@
       <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" customWidth="1"/>
-    <col min="2" max="2" width="7.21875" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.33203125" customWidth="1"/>
-    <col min="6" max="6" width="8.109375" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.33203125" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.28515625" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20" t="s">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="20"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="21" t="s">
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>35</v>
       </c>
@@ -3677,50 +3677,50 @@
         <v>7002.1895805965823</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="20"/>
-      <c r="C11" s="20" t="s">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="F11" s="20" t="s">
+      <c r="D11" s="14"/>
+      <c r="F11" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="21" t="s">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="21" t="s">
+      <c r="J12" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>36</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>7002.1895805965823</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
         <v>38</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>7002.1895805965823</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>39</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>7002.1895805965823</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>40</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>7002.1895805965823</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
         <v>41</v>
       </c>
@@ -3844,19 +3844,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" customWidth="1"/>
+    <col min="3" max="4" width="5" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3879,8 +3880,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="17">
         <v>800</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3902,8 +3903,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3923,8 +3924,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3944,8 +3945,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3965,22 +3966,22 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="18">
         <v>800</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="16"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="20"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>5</v>
       </c>
@@ -4012,7 +4013,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -4049,7 +4050,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -4086,7 +4087,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -4123,7 +4124,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>4</v>
       </c>
@@ -4160,7 +4161,7 @@
         <v>1027.6186062932102</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>5</v>
       </c>
@@ -4197,7 +4198,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -4221,22 +4222,22 @@
         <v>5027.6186062932102</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="18">
         <v>800</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="16"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="20"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>5</v>
       </c>
@@ -4268,7 +4269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -4304,7 +4305,7 @@
         <v>1079.2345040599789</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -4340,7 +4341,7 @@
         <v>1412.8520299557722</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>3</v>
       </c>
@@ -4376,7 +4377,7 @@
         <v>1569.829878498193</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>4</v>
       </c>
@@ -4412,7 +4413,7 @@
         <v>1619.362556441572</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>5</v>
       </c>
@@ -4448,7 +4449,7 @@
         <v>1320.9106116410669</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -4472,75 +4473,75 @@
         <v>7002.1895805965823</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="17" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17" t="s">
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17" t="s">
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="J25" s="17"/>
-    </row>
-    <row r="26" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="18" t="s">
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="13">
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="17">
         <f>I14</f>
         <v>2282.2616289332564</v>
       </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13">
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17">
         <f>J14</f>
         <v>5027.6186062932102</v>
       </c>
-      <c r="J26" s="13"/>
-    </row>
-    <row r="27" spans="1:10" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="18" t="s">
+      <c r="J26" s="17"/>
+    </row>
+    <row r="27" spans="1:10" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="13">
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="17">
         <f>I23</f>
         <v>800</v>
       </c>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13">
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17">
         <f>J23</f>
         <v>7002.1895805965823</v>
       </c>
-      <c r="J27" s="13"/>
+      <c r="J27" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="F25:H25"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="F26:H26"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="F27:H27"/>
     <mergeCell ref="I27:J27"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="F25:H25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
